--- a/croatia/data/ssp_croatia_transformation_2024_01_20.xlsx
+++ b/croatia/data/ssp_croatia_transformation_2024_01_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarob\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99FE3B2-47E6-4D33-8809-364A827FAD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64335FAE-7264-4258-9FD4-616D50D23B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2770,7 +2770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M39" sqref="M39:M40"/>
+      <selection pane="topRight" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4569,7 +4569,9 @@
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="16"/>
+      <c r="O36" s="16">
+        <v>0.3</v>
+      </c>
       <c r="P36" s="15"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="2"/>
@@ -8740,9 +8742,9 @@
         <f>IF(VLOOKUP(D32,main!C:O,12,FALSE)=0,"",VLOOKUP(D32,main!C:O,12,FALSE))</f>
         <v/>
       </c>
-      <c r="G32" s="21" t="str">
+      <c r="G32" s="21">
         <f>IF(VLOOKUP(D32,main!C:O,13,FALSE)=0,"",VLOOKUP(D32,main!C:O,13,FALSE))</f>
-        <v/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
